--- a/results/RIMP9_260213-1340/ReqPowDATA.xlsx
+++ b/results/RIMP9_260213-1340/ReqPowDATA.xlsx
@@ -502,64 +502,64 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>56.92353134120418</v>
+        <v>59.40143693693788</v>
       </c>
       <c r="C2" t="n">
-        <v>113.8470626824084</v>
+        <v>118.8028738738758</v>
       </c>
       <c r="D2" t="n">
-        <v>1093.544939558538</v>
+        <v>1159.465195293771</v>
       </c>
       <c r="E2" t="n">
-        <v>1138.470626824083</v>
+        <v>1188.028738738758</v>
       </c>
       <c r="F2" t="n">
-        <v>1138.470626824083</v>
+        <v>1188.028738738758</v>
       </c>
       <c r="G2" t="n">
-        <v>1253.234861167193</v>
+        <v>1292.900950106882</v>
       </c>
       <c r="H2" t="n">
-        <v>1253.234861167193</v>
+        <v>1292.900950106882</v>
       </c>
       <c r="I2" t="n">
-        <v>1253.234861167193</v>
+        <v>1292.900950106882</v>
       </c>
       <c r="J2" t="n">
-        <v>1253.234861167193</v>
+        <v>1292.900950106882</v>
       </c>
       <c r="K2" t="n">
-        <v>113.8470626824084</v>
+        <v>118.8028738738758</v>
       </c>
       <c r="L2" t="n">
-        <v>1138.470626824083</v>
+        <v>1188.028738738758</v>
       </c>
       <c r="M2" t="n">
-        <v>1138.470626824083</v>
+        <v>1188.028738738758</v>
       </c>
       <c r="N2" t="n">
-        <v>1253.234861167193</v>
+        <v>1292.900950106882</v>
       </c>
       <c r="O2" t="n">
-        <v>1253.234861167193</v>
+        <v>1292.900950106882</v>
       </c>
       <c r="P2" t="n">
-        <v>1253.234861167193</v>
+        <v>1292.900950106882</v>
       </c>
       <c r="Q2" t="n">
-        <v>1253.234861167193</v>
+        <v>1292.900950106882</v>
       </c>
       <c r="R2" t="n">
-        <v>113.8470626824084</v>
+        <v>118.8028738738758</v>
       </c>
       <c r="S2" t="n">
-        <v>113.8470626824084</v>
+        <v>118.8028738738758</v>
       </c>
       <c r="T2" t="n">
-        <v>113.8470626824084</v>
+        <v>118.8028738738758</v>
       </c>
       <c r="U2" t="n">
-        <v>56.92353134120418</v>
+        <v>59.40143693693788</v>
       </c>
     </row>
     <row r="3">
@@ -569,64 +569,64 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>56.92353134120418</v>
+        <v>59.40143693693788</v>
       </c>
       <c r="C3" t="n">
-        <v>113.8470626824084</v>
+        <v>118.8028738738758</v>
       </c>
       <c r="D3" t="n">
-        <v>869.3858904443027</v>
+        <v>923.31919072061</v>
       </c>
       <c r="E3" t="n">
-        <v>914.3115777098481</v>
+        <v>951.8827341655964</v>
       </c>
       <c r="F3" t="n">
-        <v>914.3115777098481</v>
+        <v>951.8827341655964</v>
       </c>
       <c r="G3" t="n">
-        <v>1253.234861167193</v>
+        <v>1292.900950106882</v>
       </c>
       <c r="H3" t="n">
-        <v>1253.234861167193</v>
+        <v>1292.900950106882</v>
       </c>
       <c r="I3" t="n">
-        <v>1253.234861167193</v>
+        <v>1292.900950106882</v>
       </c>
       <c r="J3" t="n">
-        <v>1253.234861167193</v>
+        <v>1292.900950106882</v>
       </c>
       <c r="K3" t="n">
-        <v>113.8470626824084</v>
+        <v>118.8028738738758</v>
       </c>
       <c r="L3" t="n">
-        <v>914.3115777098481</v>
+        <v>951.8827341655964</v>
       </c>
       <c r="M3" t="n">
-        <v>914.3115777098481</v>
+        <v>951.8827341655964</v>
       </c>
       <c r="N3" t="n">
-        <v>1253.234861167193</v>
+        <v>1292.900950106882</v>
       </c>
       <c r="O3" t="n">
-        <v>1253.234861167193</v>
+        <v>1292.900950106882</v>
       </c>
       <c r="P3" t="n">
-        <v>1253.234861167193</v>
+        <v>1292.900950106882</v>
       </c>
       <c r="Q3" t="n">
-        <v>1253.234861167193</v>
+        <v>1292.900950106882</v>
       </c>
       <c r="R3" t="n">
-        <v>113.8470626824084</v>
+        <v>118.8028738738758</v>
       </c>
       <c r="S3" t="n">
-        <v>113.8470626824084</v>
+        <v>118.8028738738758</v>
       </c>
       <c r="T3" t="n">
-        <v>113.8470626824084</v>
+        <v>118.8028738738758</v>
       </c>
       <c r="U3" t="n">
-        <v>56.92353134120418</v>
+        <v>59.40143693693788</v>
       </c>
     </row>
     <row r="4">
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>224.1590491142354</v>
+        <v>236.1460045731611</v>
       </c>
       <c r="E4" t="n">
-        <v>224.1590491142354</v>
+        <v>236.1460045731611</v>
       </c>
       <c r="F4" t="n">
-        <v>224.1590491142354</v>
+        <v>236.1460045731611</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -666,10 +666,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>224.1590491142354</v>
+        <v>236.1460045731611</v>
       </c>
       <c r="M4" t="n">
-        <v>224.1590491142354</v>
+        <v>236.1460045731611</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
